--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Erbb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H2">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02001390104333333</v>
+        <v>0.006392863632444444</v>
       </c>
       <c r="R2">
-        <v>0.18012510939</v>
+        <v>0.057535772692</v>
       </c>
       <c r="S2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="T2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I3">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J3">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>284.150678918384</v>
       </c>
       <c r="S3">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="T3">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H4">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I4">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J4">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2199747168897777</v>
+        <v>0.6166023862303333</v>
       </c>
       <c r="R4">
-        <v>1.979772452008</v>
+        <v>5.549421476072999</v>
       </c>
       <c r="S4">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="T4">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
     </row>
   </sheetData>
